--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2037976.192081803</v>
+        <v>2142155.826532875</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.3410446482131</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>72.26185188621326</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>147.1225758426018</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>55.445833288512</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>251.6619297099721</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>269.29415346822</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>142.4996375676375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.8823210979749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>116.0501979381555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>66.76195975981727</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>95.39020434787054</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.63843252358405</v>
       </c>
     </row>
     <row r="11">
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986245</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>20.92847288553229</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1768,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>44.75138076689361</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>46.35517081455633</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>121.2172995552593</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>86.88943397770124</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>87.2147151485303</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>27.02919805175664</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>170.498627132708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>129.719450923317</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>170.9457618790577</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>32.27552175740432</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>243.1373908222623</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>224.1349029895133</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>153.5899618586515</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784682</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637045</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D46" t="n">
-        <v>50.06209150957608</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1995.741330469122</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4325,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3252.614052027138</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3046.63630441136</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3046.63630441136</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2715.573417067789</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2362.804761797675</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2362.804761797675</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y2" t="n">
-        <v>2362.804761797675</v>
+        <v>2382.341170533244</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>482.8906159540807</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1587.000001448044</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1587.000001448044</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1332.315513242158</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1332.315513242158</v>
+        <v>1113.321210825868</v>
       </c>
       <c r="X4" t="n">
-        <v>1104.32596234414</v>
+        <v>885.3316599278505</v>
       </c>
       <c r="Y4" t="n">
-        <v>1104.32596234414</v>
+        <v>664.5390807843204</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>3071.401852205159</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2718.633196935045</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.2513404403938</v>
+        <v>678.6720730524786</v>
       </c>
       <c r="C7" t="n">
-        <v>361.3151575124869</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1693.525062999922</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1693.525062999922</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1404.422196125566</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1149.737707919679</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>860.3205378827183</v>
       </c>
       <c r="X7" t="n">
-        <v>680.6375233676413</v>
+        <v>860.3205378827183</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.2513404403938</v>
+        <v>860.3205378827183</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2034.604709474942</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.642192534531</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1307.37649392778</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4823,7 +4825,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450754</v>
+        <v>2004.539063190924</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474942</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,46 +4871,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6989751875257</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>528.3452334219999</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219999</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="X10" t="n">
-        <v>845.4915543310558</v>
+        <v>1320.371673073647</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6989751875257</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
@@ -5048,31 +5050,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597658</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>261.84648214743</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>261.84648214743</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>114.9565346495197</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>114.9565346495197</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,13 +5290,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>594.8179559048583</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>962.6357307816191</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C19" t="n">
-        <v>793.6995478537123</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D19" t="n">
-        <v>643.5829084413765</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E19" t="n">
-        <v>495.6698148589834</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>348.779867361073</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>181.5837680759529</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.284195611859</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5838,19 +5840,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +6001,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6029,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,19 +6077,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2985.713220456422</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2816.777037528515</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2816.777037528515</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661313</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3388.154264430192</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3167.361685286662</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6299,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C28" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F28" t="n">
         <v>317.6151975578601</v>
@@ -6376,58 +6378,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y28" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.07903472198</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961267</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.390058741045</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>315.9123021921476</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.18466155292</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6928,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,52 +7162,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>506.2737913123336</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
         <v>484.8112968429803</v>
@@ -7327,55 +7329,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7500,16 +7502,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>2801.889418061669</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>2801.889418061669</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>2651.772778649334</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>2651.772778649334</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>2504.882831151423</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>2939.372134388644</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876693</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>119.3662399606916</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>6.257951202384504</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>101.6825818796756</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>179.3544845744808</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>58.61468062667804</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40527886852261</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>59.21924749803887</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>118.3918499711746</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>55.21102825632917</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>37.52737017531084</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>185.1299285698839</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>43.0470835669818</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>28.00274033431467</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>72.11969353038569</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>43.7240910182328</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D46" t="n">
-        <v>98.55338150863628</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174902</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="14">
@@ -26314,40 +26316,40 @@
         <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752541</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26430,7 +26432,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26439,7 +26441,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26454,7 +26456,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-932997.3580905497</v>
+        <v>-932997.3580905498</v>
       </c>
       <c r="C6" t="n">
-        <v>395747.3876370428</v>
+        <v>395747.3876370427</v>
       </c>
       <c r="D6" t="n">
         <v>395747.3876370428</v>
       </c>
       <c r="E6" t="n">
-        <v>146259.3729621741</v>
+        <v>146259.3729621739</v>
       </c>
       <c r="F6" t="n">
+        <v>471671.8347695295</v>
+      </c>
+      <c r="G6" t="n">
+        <v>471671.8347695293</v>
+      </c>
+      <c r="H6" t="n">
+        <v>471671.8347695295</v>
+      </c>
+      <c r="I6" t="n">
         <v>471671.8347695292</v>
       </c>
-      <c r="G6" t="n">
-        <v>471671.8347695292</v>
-      </c>
-      <c r="H6" t="n">
-        <v>471671.8347695292</v>
-      </c>
-      <c r="I6" t="n">
-        <v>471671.8347695291</v>
-      </c>
       <c r="J6" t="n">
-        <v>254140.6323722513</v>
+        <v>254140.6323722519</v>
       </c>
       <c r="K6" t="n">
         <v>471671.8347695291</v>
       </c>
       <c r="L6" t="n">
-        <v>471671.834769529</v>
+        <v>471671.8347695291</v>
       </c>
       <c r="M6" t="n">
         <v>386616.8068340172</v>
       </c>
       <c r="N6" t="n">
-        <v>471671.8347695292</v>
+        <v>471671.8347695291</v>
       </c>
       <c r="O6" t="n">
         <v>471671.8347695291</v>
       </c>
       <c r="P6" t="n">
-        <v>471671.834769529</v>
+        <v>471671.8347695291</v>
       </c>
     </row>
   </sheetData>
@@ -26787,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>345.9318471227945</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>36.92590990196257</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>72.42637343356736</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>231.077165048079</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>76.09032876016281</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>100.436947210249</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>47.26938776380439</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.70233225411985</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>265.8801721341063</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>302.9691409186518</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>71.8566167507573</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.9462208285107</v>
       </c>
     </row>
     <row r="11">
@@ -29341,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -29460,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-3.197455209038191e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -30523,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31607,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31841,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31862,7 +31864,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M15" t="n">
-        <v>245.8118639189577</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32341,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.637736314577</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860823</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>399.0581126127089</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>211.0222436375116</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663286</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33977,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>744.5154887882966</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35489,19 +35491,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M15" t="n">
-        <v>103.6778299969394</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312436</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640639</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0837051983787</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M36" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>602.3814548662783</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2142155.826532875</v>
+        <v>2138143.216518882</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>378.8302941196505</v>
       </c>
       <c r="C2" t="n">
-        <v>19.3410446482131</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>55.445833288512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>211.5692349389745</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>191.2490250244967</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>269.29415346822</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>142.4996375676375</v>
+        <v>142.6955872305738</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951718</v>
       </c>
       <c r="X8" t="n">
-        <v>66.76195975981727</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.63843252358405</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>46.35517081455633</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>74.96337793487972</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.2172995552593</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>247.6310136071098</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>193.9507379795604</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>27.02919805175664</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>129.719450923317</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>224.1349029895133</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>136.1078891637045</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>105.11626575513</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.741330469122</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533244</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y2" t="n">
-        <v>2382.341170533244</v>
+        <v>2388.243802269323</v>
       </c>
     </row>
     <row r="3">
@@ -4385,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>482.8906159540807</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C4" t="n">
-        <v>313.9544330261738</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D4" t="n">
-        <v>163.837793613838</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>163.837793613838</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1113.321210825868</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>885.3316599278505</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>664.5390807843204</v>
+        <v>941.4970410294717</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2303.170539913434</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3022.134319778188</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2768.603843052024</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410101</v>
+        <v>2437.540955708454</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410101</v>
+        <v>2084.772300438339</v>
       </c>
       <c r="X5" t="n">
-        <v>2689.770379977556</v>
+        <v>1711.306542177259</v>
       </c>
       <c r="Y5" t="n">
-        <v>2689.770379977556</v>
+        <v>1321.167210201447</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4646,52 +4646,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>678.6720730524786</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>509.7358901245717</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>359.619250712236</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1693.525062999922</v>
+        <v>1783.157591289933</v>
       </c>
       <c r="T7" t="n">
-        <v>1693.525062999922</v>
+        <v>1783.157591289933</v>
       </c>
       <c r="U7" t="n">
-        <v>1404.422196125566</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V7" t="n">
-        <v>1149.737707919679</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W7" t="n">
-        <v>860.3205378827183</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X7" t="n">
-        <v>860.3205378827183</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>860.3205378827183</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X8" t="n">
-        <v>2004.539063190924</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4901,22 +4901,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4959,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,25 +4986,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1548.361223971664</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>1320.371673073647</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
         <v>1273.262145272047</v>
@@ -5041,25 +5041,25 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,16 +5287,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>658.9255961109956</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>840.5740609412353</v>
       </c>
     </row>
     <row r="17">
@@ -5503,34 +5503,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>640.1060525954244</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,28 +6223,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6271,7 +6271,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6311,22 +6311,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400667</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121598</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121598</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121598</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6390,46 +6390,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832658</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487563</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510504</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854702</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648815</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611854</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138365</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703064</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253734</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7022,22 +7022,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,25 +7256,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1461.986961946107</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1172.569791909146</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7432,25 +7432,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591808</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2801.889418061669</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C43" t="n">
-        <v>2801.889418061669</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D43" t="n">
-        <v>2651.772778649334</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E43" t="n">
-        <v>2651.772778649334</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F43" t="n">
-        <v>2504.882831151423</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866303</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467151</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430191</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532174</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388644</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7785,25 +7785,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>179.3544845744808</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>143.6212754172151</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.61468062667804</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>38.89198472948121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.63391537253443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>118.3918499711746</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>37.52737017531084</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>28.00274033431467</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.7240910182328</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838914.2000174902</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752545</v>
@@ -26331,7 +26331,7 @@
         <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
@@ -26343,19 +26343,19 @@
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316939</v>
+      </c>
+      <c r="C4" t="n">
         <v>91573.95495316945</v>
       </c>
-      <c r="C4" t="n">
-        <v>91573.95495316948</v>
-      </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26441,7 +26441,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26456,7 +26456,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-932997.3580905498</v>
+        <v>-932997.3580905497</v>
       </c>
       <c r="C6" t="n">
-        <v>395747.3876370427</v>
+        <v>395747.3876370428</v>
       </c>
       <c r="D6" t="n">
-        <v>395747.3876370428</v>
+        <v>395747.387637043</v>
       </c>
       <c r="E6" t="n">
-        <v>146259.3729621739</v>
+        <v>145911.9937078173</v>
       </c>
       <c r="F6" t="n">
-        <v>471671.8347695295</v>
+        <v>471324.4555151723</v>
       </c>
       <c r="G6" t="n">
-        <v>471671.8347695293</v>
+        <v>471324.4555151724</v>
       </c>
       <c r="H6" t="n">
-        <v>471671.8347695295</v>
+        <v>471324.4555151723</v>
       </c>
       <c r="I6" t="n">
-        <v>471671.8347695292</v>
+        <v>471324.4555151723</v>
       </c>
       <c r="J6" t="n">
-        <v>254140.6323722519</v>
+        <v>253793.2531178948</v>
       </c>
       <c r="K6" t="n">
-        <v>471671.8347695291</v>
+        <v>471324.4555151722</v>
       </c>
       <c r="L6" t="n">
-        <v>471671.8347695291</v>
+        <v>471324.4555151724</v>
       </c>
       <c r="M6" t="n">
-        <v>386616.8068340172</v>
+        <v>386269.4275796604</v>
       </c>
       <c r="N6" t="n">
-        <v>471671.8347695291</v>
+        <v>471324.4555151724</v>
       </c>
       <c r="O6" t="n">
-        <v>471671.8347695291</v>
+        <v>471324.4555151722</v>
       </c>
       <c r="P6" t="n">
-        <v>471671.8347695291</v>
+        <v>471324.4555151723</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3.903547543830086</v>
       </c>
       <c r="C2" t="n">
-        <v>345.9318471227945</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>231.077165048079</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>7.015418413120244</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>12.66894511512342</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>100.436947210249</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>47.26938776380439</v>
+        <v>47.07343810086812</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>222.7020862222412</v>
       </c>
       <c r="X8" t="n">
-        <v>302.9691409186518</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,19 +28067,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.9462208285107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-3.197455209038191e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,19 +32083,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33031,25 +33031,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>744.5154887882966</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191269</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37624,19 +37624,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>602.3814548662783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2138143.216518882</v>
+        <v>2139903.746821667</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378.8302941196505</v>
+        <v>378.8302941196492</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>80.71262740536758</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.5692349389745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6988068886399</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>191.2490250244967</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>142.6955872305738</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>126.5388824951718</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>194.5727296124804</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>152.6250124446336</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695258</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>83.06560892427183</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>74.96337793487972</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>247.6310136071098</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>31.26260713376574</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>95.81917536083702</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2724,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="G28" t="n">
-        <v>19.91555826189058</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>105.11626575513</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4321,61 +4321,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269323</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.243802269323</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="Y2" t="n">
-        <v>2388.243802269323</v>
+        <v>2388.243802269321</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
         <v>772.5608581015648</v>
@@ -4485,55 +4485,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845645</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.203338947628</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y4" t="n">
-        <v>941.4970410294717</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.5673701373257</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3022.134319778188</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2768.603843052024</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.540955708454</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.772300438339</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.306542177259</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.167210201447</v>
+        <v>2630.721789066531</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4716,13 +4716,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,19 +4752,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1783.157591289933</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1783.157591289933</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.054724415577</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V7" t="n">
-        <v>1494.054724415577</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.054724415577</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
         <v>1494.054724415577</v>
@@ -4801,52 +4801,52 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>3197.788768583745</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y8" t="n">
         <v>2434.183678346854</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>980.7518458718754</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>811.8156629439685</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>661.6990235316327</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>513.7859299492396</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>366.8959824513292</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>1162.400310702115</v>
       </c>
     </row>
     <row r="11">
@@ -5035,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5108,31 +5108,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516139</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400612</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121543</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121543</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121543</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782865</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003825</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797649</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910799</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570808</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279792</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853351</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832653</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487557</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510498</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854696</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648809</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611848</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138311</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703009</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>658.9255961109956</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270434</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>840.5740609412353</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,31 +5740,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5892,19 +5892,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5989,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2415.384692536053</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2415.384692536053</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U25" t="n">
-        <v>2126.309465880251</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.624977674364</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>113.9333885650331</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>113.9333885650331</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>113.9333885650331</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6694,13 +6694,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
         <v>402.7245934908939</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,25 +7156,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1057.955258982919</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>889.0190760550122</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>738.9024366426764</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>590.9893430602833</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1688.385853854706</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1460.396302956689</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1239.603723813159</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,10 +7645,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909865942</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194308</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788572</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>38.89198472948121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>35.11263957635595</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>110.003342051665</v>
       </c>
       <c r="G28" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>40.30478226780122</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>853156.7494461247</v>
+        <v>853156.7494461248</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174901</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838914.2000174904</v>
+        <v>838914.2000174905</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838914.2000174903</v>
+        <v>838914.2000174904</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838914.2000174905</v>
+        <v>838914.2000174903</v>
       </c>
     </row>
     <row r="16">
@@ -26319,28 +26319,28 @@
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="G2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752545</v>
@@ -26349,13 +26349,13 @@
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316951</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316946</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181824</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26441,7 +26441,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-932997.3580905497</v>
+        <v>-932997.3580905495</v>
       </c>
       <c r="C6" t="n">
+        <v>395747.3876370423</v>
+      </c>
+      <c r="D6" t="n">
         <v>395747.3876370428</v>
       </c>
-      <c r="D6" t="n">
-        <v>395747.387637043</v>
-      </c>
       <c r="E6" t="n">
-        <v>145911.9937078173</v>
+        <v>146224.6350367386</v>
       </c>
       <c r="F6" t="n">
-        <v>471324.4555151723</v>
+        <v>471637.0968440934</v>
       </c>
       <c r="G6" t="n">
-        <v>471324.4555151724</v>
+        <v>471637.0968440931</v>
       </c>
       <c r="H6" t="n">
-        <v>471324.4555151723</v>
+        <v>471637.0968440934</v>
       </c>
       <c r="I6" t="n">
-        <v>471324.4555151723</v>
+        <v>471637.0968440935</v>
       </c>
       <c r="J6" t="n">
-        <v>253793.2531178948</v>
+        <v>254105.8944468159</v>
       </c>
       <c r="K6" t="n">
-        <v>471324.4555151722</v>
+        <v>471637.0968440936</v>
       </c>
       <c r="L6" t="n">
-        <v>471324.4555151724</v>
+        <v>471637.0968440936</v>
       </c>
       <c r="M6" t="n">
-        <v>386269.4275796604</v>
+        <v>386582.0689085818</v>
       </c>
       <c r="N6" t="n">
-        <v>471324.4555151724</v>
+        <v>471637.0968440934</v>
       </c>
       <c r="O6" t="n">
-        <v>471324.4555151722</v>
+        <v>471637.0968440934</v>
       </c>
       <c r="P6" t="n">
-        <v>471324.4555151723</v>
+        <v>471637.0968440934</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.903547543830086</v>
+        <v>3.903547543831394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>205.8103709312234</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.015418413120244</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>100.0350347748407</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>12.66894511512342</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27824,13 +27824,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>47.07343810086812</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>206.1202045604618</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>222.7020862222412</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>191.6652090435732</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>13.40079581439466</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,13 +28070,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.756905814749189e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28271,7 +28271,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-9.143737618918142e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33891,13 +33891,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -34128,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34365,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294416</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
